--- a/employees.xlsx
+++ b/employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radia\OneDrive\Bureau\PyProjects\Petromag\Systeme-de-pointage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FE9719-8075-4E2F-829B-C7794DC51088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1EF90-5A91-4720-9C69-650FBD8CA493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>sABD</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,6 +412,325 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radia\OneDrive\Bureau\PyProjects\Petromag\Systeme-de-pointage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C1EF90-5A91-4720-9C69-650FBD8CA493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2BC64-3CF1-4DA9-9873-E78E9413C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -33,22 +33,19 @@
     <t>Matricule</t>
   </si>
   <si>
-    <t>Hamid</t>
-  </si>
-  <si>
-    <t>Informatique</t>
-  </si>
-  <si>
-    <t>Moncef</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
     <t>Department</t>
   </si>
   <si>
-    <t>sABD</t>
+    <t>ZENDEV</t>
+  </si>
+  <si>
+    <t>BLAL</t>
+  </si>
+  <si>
+    <t>developpeur</t>
+  </si>
+  <si>
+    <t>Operateur produit</t>
   </si>
 </sst>
 </file>
@@ -366,13 +363,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -387,348 +384,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>80</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>80</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -1,51 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radia\OneDrive\Bureau\PyProjects\Petromag\Systeme-de-pointage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2BC64-3CF1-4DA9-9873-E78E9413C1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64B4A30-A538-4AD3-81E1-49DA20029106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Matricule</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>ZENDEV</t>
   </si>
   <si>
     <t>BLAL</t>
   </si>
   <si>
-    <t>developpeur</t>
-  </si>
-  <si>
     <t>Operateur produit</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Fonction</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Date Recrut</t>
+  </si>
+  <si>
+    <t>Date Detach</t>
+  </si>
+  <si>
+    <t>Affect Origine</t>
+  </si>
+  <si>
+    <t>Sit Fam</t>
+  </si>
+  <si>
+    <t>Nbrs Enfants</t>
+  </si>
+  <si>
+    <t>Mustapha</t>
+  </si>
+  <si>
+    <t>Zoubir</t>
+  </si>
+  <si>
+    <t>Developpeur</t>
+  </si>
+  <si>
+    <t>veuf</t>
+  </si>
+  <si>
+    <t>Douera</t>
   </si>
 </sst>
 </file>
@@ -81,8 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,49 +407,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>224</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45332</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
     </row>
